--- a/data/Standings/standings_all.xlsx
+++ b/data/Standings/standings_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Documents\fantasy_football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B89F7-927A-44A1-8D57-431FE34148F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CFD490-33E2-4966-8FC4-F88D418A5765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,11 +3558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A610" sqref="A610"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3655,7 +3654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2003</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2003</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2003</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2003</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2003</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2003</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2003</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2003</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2003</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2003</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2003</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2003</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2003</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2003</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2003</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2003</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2003</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2003</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2003</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2003</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2003</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2003</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2003</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2003</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2003</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2003</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>2003</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2003</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>2004</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2004</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2004</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>2004</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2004</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>2004</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2004</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>2004</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2004</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2004</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>2004</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>2004</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>2004</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>2004</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>2004</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>2004</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2004</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>2004</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>2004</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>2004</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2004</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>2004</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>2004</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>2004</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>2004</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>2004</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>2004</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>2004</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>2004</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>2004</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>2004</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>2005</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>2005</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>2005</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>2005</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>2005</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>2005</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>2005</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>2005</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>2005</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>2005</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>2005</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>2005</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>2005</v>
       </c>
@@ -8725,7 +8724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>2005</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>2005</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>2005</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>2005</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>2005</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>2005</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>2005</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>2005</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>2005</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>2005</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>2005</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>2005</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>2005</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>2005</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>2005</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>2005</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>2005</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>2005</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>2006</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>2006</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>2006</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>2006</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>2006</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>2006</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>2006</v>
       </c>
@@ -10415,7 +10414,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>2006</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>2006</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>2006</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>2006</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>2006</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>2006</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>2006</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>2006</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>2006</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>2006</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>2006</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>2006</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>2006</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>2006</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>2006</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>2006</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>2006</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>2006</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>2006</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>2006</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>2006</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>2006</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>2006</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>2006</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>2007</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>2007</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>2007</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>2007</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>2007</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>2007</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>2007</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>2007</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>2007</v>
       </c>
@@ -12625,7 +12624,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>2007</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>2007</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>2007</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>2007</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>2007</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>2007</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>2007</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>2007</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>2007</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>2007</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>2007</v>
       </c>
@@ -13340,7 +13339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>2007</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>2007</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>2007</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>2007</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>2007</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>2007</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>2007</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>2007</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>2007</v>
       </c>
@@ -13925,7 +13924,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>2007</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>2007</v>
       </c>
@@ -14055,7 +14054,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>2008</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>2008</v>
       </c>
@@ -14185,7 +14184,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>2008</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>2008</v>
       </c>
@@ -14380,7 +14379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>2008</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>2008</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>2008</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>2008</v>
       </c>
@@ -14640,7 +14639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>2008</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>2008</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>2008</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>2008</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>2008</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>2008</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>2008</v>
       </c>
@@ -15095,7 +15094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>2008</v>
       </c>
@@ -15160,7 +15159,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>2008</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>2008</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>2008</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>2008</v>
       </c>
@@ -15420,7 +15419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>2008</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>2008</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>2008</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>2008</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>2008</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>2008</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>2008</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>2008</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>2008</v>
       </c>
@@ -16005,7 +16004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>2008</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>2008</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>2009</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>2009</v>
       </c>
@@ -16265,7 +16264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>2009</v>
       </c>
@@ -16395,7 +16394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>2009</v>
       </c>
@@ -16460,7 +16459,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>2009</v>
       </c>
@@ -16525,7 +16524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>2009</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>2009</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>2009</v>
       </c>
@@ -16720,7 +16719,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>2009</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>2009</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>2009</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>2009</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>2009</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>2009</v>
       </c>
@@ -17110,7 +17109,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>2009</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>2009</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>2009</v>
       </c>
@@ -17305,7 +17304,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>2009</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>2009</v>
       </c>
@@ -17435,7 +17434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>2009</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>2009</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>2009</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>2009</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>2009</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>2009</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>2009</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>2009</v>
       </c>
@@ -17955,7 +17954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>2009</v>
       </c>
@@ -18020,7 +18019,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>2009</v>
       </c>
@@ -18085,7 +18084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>2009</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>2009</v>
       </c>
@@ -18215,7 +18214,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>2010</v>
       </c>
@@ -18280,7 +18279,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>2010</v>
       </c>
@@ -18345,7 +18344,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>2010</v>
       </c>
@@ -18475,7 +18474,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>2010</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>2010</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>2010</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>2010</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>2010</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>2010</v>
       </c>
@@ -18865,7 +18864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>2010</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>2010</v>
       </c>
@@ -18995,7 +18994,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>2010</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>2010</v>
       </c>
@@ -19125,7 +19124,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>2010</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>2010</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>2010</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>2010</v>
       </c>
@@ -19385,7 +19384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>2010</v>
       </c>
@@ -19450,7 +19449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>2010</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>2010</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>2010</v>
       </c>
@@ -19645,7 +19644,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>2010</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>2010</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>2010</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>2010</v>
       </c>
@@ -19905,7 +19904,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>2010</v>
       </c>
@@ -19970,7 +19969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>2010</v>
       </c>
@@ -20035,7 +20034,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>2010</v>
       </c>
@@ -20100,7 +20099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>2010</v>
       </c>
@@ -20165,7 +20164,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>2010</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>2010</v>
       </c>
@@ -20295,7 +20294,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>2011</v>
       </c>
@@ -20360,7 +20359,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>2011</v>
       </c>
@@ -20425,7 +20424,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>2011</v>
       </c>
@@ -20555,7 +20554,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>2011</v>
       </c>
@@ -20620,7 +20619,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>2011</v>
       </c>
@@ -20685,7 +20684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>2011</v>
       </c>
@@ -20750,7 +20749,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>2011</v>
       </c>
@@ -20815,7 +20814,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>2011</v>
       </c>
@@ -20880,7 +20879,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>2011</v>
       </c>
@@ -20945,7 +20944,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>2011</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>2011</v>
       </c>
@@ -21072,7 +21071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>2011</v>
       </c>
@@ -21137,7 +21136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>2011</v>
       </c>
@@ -21202,7 +21201,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>2011</v>
       </c>
@@ -21267,7 +21266,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>2011</v>
       </c>
@@ -21332,7 +21331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>2011</v>
       </c>
@@ -21397,7 +21396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>2011</v>
       </c>
@@ -21462,7 +21461,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>2011</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>2011</v>
       </c>
@@ -21592,7 +21591,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>2011</v>
       </c>
@@ -21657,7 +21656,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>2011</v>
       </c>
@@ -21722,7 +21721,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>2011</v>
       </c>
@@ -21787,7 +21786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>2011</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>2011</v>
       </c>
@@ -21917,7 +21916,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>2011</v>
       </c>
@@ -21982,7 +21981,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>2011</v>
       </c>
@@ -22047,7 +22046,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>2011</v>
       </c>
@@ -22112,7 +22111,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>2011</v>
       </c>
@@ -22177,7 +22176,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>2011</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>2011</v>
       </c>
@@ -22307,7 +22306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>2011</v>
       </c>
@@ -22372,7 +22371,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>2012</v>
       </c>
@@ -22437,7 +22436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>2012</v>
       </c>
@@ -22502,7 +22501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>2012</v>
       </c>
@@ -22632,7 +22631,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>2012</v>
       </c>
@@ -22697,7 +22696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>2012</v>
       </c>
@@ -22762,7 +22761,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>2012</v>
       </c>
@@ -22827,7 +22826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>2012</v>
       </c>
@@ -22892,7 +22891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>2012</v>
       </c>
@@ -22957,7 +22956,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>2012</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>2012</v>
       </c>
@@ -23087,7 +23086,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>2012</v>
       </c>
@@ -23152,7 +23151,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>2012</v>
       </c>
@@ -23217,7 +23216,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>2012</v>
       </c>
@@ -23282,7 +23281,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>2012</v>
       </c>
@@ -23347,7 +23346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>2012</v>
       </c>
@@ -23412,7 +23411,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>2012</v>
       </c>
@@ -23477,7 +23476,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>2012</v>
       </c>
@@ -23542,7 +23541,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>2012</v>
       </c>
@@ -23607,7 +23606,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>2012</v>
       </c>
@@ -23672,7 +23671,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>2012</v>
       </c>
@@ -23737,7 +23736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>2012</v>
       </c>
@@ -23802,7 +23801,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>2012</v>
       </c>
@@ -23867,7 +23866,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>2012</v>
       </c>
@@ -23932,7 +23931,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>2012</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>2012</v>
       </c>
@@ -24062,7 +24061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>2012</v>
       </c>
@@ -24127,7 +24126,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>2012</v>
       </c>
@@ -24192,7 +24191,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>2012</v>
       </c>
@@ -24257,7 +24256,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>2012</v>
       </c>
@@ -24322,7 +24321,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>2012</v>
       </c>
@@ -24387,7 +24386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>2012</v>
       </c>
@@ -24452,7 +24451,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>2013</v>
       </c>
@@ -24517,7 +24516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>2013</v>
       </c>
@@ -24582,7 +24581,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>2013</v>
       </c>
@@ -24712,7 +24711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>2013</v>
       </c>
@@ -24777,7 +24776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>2013</v>
       </c>
@@ -24842,7 +24841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>2013</v>
       </c>
@@ -24907,7 +24906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>2013</v>
       </c>
@@ -24972,7 +24971,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>2013</v>
       </c>
@@ -25037,7 +25036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>2013</v>
       </c>
@@ -25102,7 +25101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>2013</v>
       </c>
@@ -25167,7 +25166,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>2013</v>
       </c>
@@ -25232,7 +25231,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>2013</v>
       </c>
@@ -25297,7 +25296,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>2013</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>2013</v>
       </c>
@@ -25427,7 +25426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>2013</v>
       </c>
@@ -25492,7 +25491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>2013</v>
       </c>
@@ -25557,7 +25556,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>2013</v>
       </c>
@@ -25622,7 +25621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>2013</v>
       </c>
@@ -25687,7 +25686,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>2013</v>
       </c>
@@ -25752,7 +25751,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>2013</v>
       </c>
@@ -25817,7 +25816,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>2013</v>
       </c>
@@ -25882,7 +25881,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>2013</v>
       </c>
@@ -25947,7 +25946,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>2013</v>
       </c>
@@ -26012,7 +26011,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>2013</v>
       </c>
@@ -26077,7 +26076,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>2013</v>
       </c>
@@ -26142,7 +26141,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>2013</v>
       </c>
@@ -26207,7 +26206,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>2013</v>
       </c>
@@ -26272,7 +26271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>2013</v>
       </c>
@@ -26337,7 +26336,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>2013</v>
       </c>
@@ -26402,7 +26401,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>2013</v>
       </c>
@@ -26467,7 +26466,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>2013</v>
       </c>
@@ -26532,7 +26531,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>2014</v>
       </c>
@@ -26662,7 +26661,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>2014</v>
       </c>
@@ -26727,7 +26726,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>2014</v>
       </c>
@@ -26792,7 +26791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>2014</v>
       </c>
@@ -26857,7 +26856,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>2014</v>
       </c>
@@ -26922,7 +26921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>2014</v>
       </c>
@@ -26987,7 +26986,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>2014</v>
       </c>
@@ -27052,7 +27051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>2014</v>
       </c>
@@ -27117,7 +27116,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>2014</v>
       </c>
@@ -27182,7 +27181,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>2014</v>
       </c>
@@ -27247,7 +27246,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>2014</v>
       </c>
@@ -27312,7 +27311,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>2014</v>
       </c>
@@ -27377,7 +27376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>2014</v>
       </c>
@@ -27442,7 +27441,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>2014</v>
       </c>
@@ -27507,7 +27506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>2014</v>
       </c>
@@ -27572,7 +27571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>2014</v>
       </c>
@@ -27637,7 +27636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>2014</v>
       </c>
@@ -27702,7 +27701,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>2014</v>
       </c>
@@ -27767,7 +27766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>2014</v>
       </c>
@@ -27832,7 +27831,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>2014</v>
       </c>
@@ -27897,7 +27896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>2014</v>
       </c>
@@ -27962,7 +27961,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>2014</v>
       </c>
@@ -28027,7 +28026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>2014</v>
       </c>
@@ -28092,7 +28091,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>2014</v>
       </c>
@@ -28157,7 +28156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>2014</v>
       </c>
@@ -28222,7 +28221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>2014</v>
       </c>
@@ -28287,7 +28286,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>2014</v>
       </c>
@@ -28352,7 +28351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>2014</v>
       </c>
@@ -28417,7 +28416,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>2014</v>
       </c>
@@ -28482,7 +28481,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>2014</v>
       </c>
@@ -28547,7 +28546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>2014</v>
       </c>
@@ -28612,7 +28611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>2015</v>
       </c>
@@ -28677,7 +28676,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>2015</v>
       </c>
@@ -28807,7 +28806,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>2015</v>
       </c>
@@ -28872,7 +28871,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>2015</v>
       </c>
@@ -28937,7 +28936,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>2015</v>
       </c>
@@ -29002,7 +29001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>2015</v>
       </c>
@@ -29067,7 +29066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>2015</v>
       </c>
@@ -29132,7 +29131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>2015</v>
       </c>
@@ -29197,7 +29196,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>2015</v>
       </c>
@@ -29262,7 +29261,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>2015</v>
       </c>
@@ -29327,7 +29326,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>2015</v>
       </c>
@@ -29392,7 +29391,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>2015</v>
       </c>
@@ -29457,7 +29456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>2015</v>
       </c>
@@ -29522,7 +29521,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>2015</v>
       </c>
@@ -29587,7 +29586,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>2015</v>
       </c>
@@ -29652,7 +29651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>2015</v>
       </c>
@@ -29717,7 +29716,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>2015</v>
       </c>
@@ -29782,7 +29781,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>2015</v>
       </c>
@@ -29847,7 +29846,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>2015</v>
       </c>
@@ -29912,7 +29911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>2015</v>
       </c>
@@ -29977,7 +29976,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>2015</v>
       </c>
@@ -30042,7 +30041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>2015</v>
       </c>
@@ -30107,7 +30106,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>2015</v>
       </c>
@@ -30172,7 +30171,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>2015</v>
       </c>
@@ -30237,7 +30236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>2015</v>
       </c>
@@ -30302,7 +30301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>2015</v>
       </c>
@@ -30367,7 +30366,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>2015</v>
       </c>
@@ -30432,7 +30431,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>2015</v>
       </c>
@@ -30497,7 +30496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>2015</v>
       </c>
@@ -30562,7 +30561,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>2015</v>
       </c>
@@ -30627,7 +30626,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>2015</v>
       </c>
@@ -30692,7 +30691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>2016</v>
       </c>
@@ -30757,7 +30756,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>2016</v>
       </c>
@@ -30887,7 +30886,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>2016</v>
       </c>
@@ -30952,7 +30951,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>2016</v>
       </c>
@@ -31017,7 +31016,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>2016</v>
       </c>
@@ -31082,7 +31081,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>2016</v>
       </c>
@@ -31147,7 +31146,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>2016</v>
       </c>
@@ -31212,7 +31211,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>2016</v>
       </c>
@@ -31277,7 +31276,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>2016</v>
       </c>
@@ -31342,7 +31341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>2016</v>
       </c>
@@ -31407,7 +31406,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>2016</v>
       </c>
@@ -31472,7 +31471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>2016</v>
       </c>
@@ -31537,7 +31536,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>2016</v>
       </c>
@@ -31602,7 +31601,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>2016</v>
       </c>
@@ -31667,7 +31666,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>2016</v>
       </c>
@@ -31732,7 +31731,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>2016</v>
       </c>
@@ -31797,7 +31796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>2016</v>
       </c>
@@ -31862,7 +31861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>2016</v>
       </c>
@@ -31927,7 +31926,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>2016</v>
       </c>
@@ -31992,7 +31991,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>2016</v>
       </c>
@@ -32057,7 +32056,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>2016</v>
       </c>
@@ -32122,7 +32121,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>2016</v>
       </c>
@@ -32187,7 +32186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>2016</v>
       </c>
@@ -32252,7 +32251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>2016</v>
       </c>
@@ -32317,7 +32316,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>2016</v>
       </c>
@@ -32382,7 +32381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>2016</v>
       </c>
@@ -32447,7 +32446,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>2016</v>
       </c>
@@ -32512,7 +32511,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>2016</v>
       </c>
@@ -32577,7 +32576,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>2016</v>
       </c>
@@ -32642,7 +32641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>2016</v>
       </c>
@@ -32707,7 +32706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>2016</v>
       </c>
@@ -32772,7 +32771,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>2017</v>
       </c>
@@ -32902,7 +32901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>2017</v>
       </c>
@@ -32967,7 +32966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>2017</v>
       </c>
@@ -33032,7 +33031,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>2017</v>
       </c>
@@ -33097,7 +33096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>2017</v>
       </c>
@@ -33162,7 +33161,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>2017</v>
       </c>
@@ -33227,7 +33226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>2017</v>
       </c>
@@ -33292,7 +33291,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>2017</v>
       </c>
@@ -33357,7 +33356,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>2017</v>
       </c>
@@ -33422,7 +33421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>2017</v>
       </c>
@@ -33487,7 +33486,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>2017</v>
       </c>
@@ -33552,7 +33551,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>2017</v>
       </c>
@@ -33617,7 +33616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>2017</v>
       </c>
@@ -33682,7 +33681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>2017</v>
       </c>
@@ -33747,7 +33746,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>2017</v>
       </c>
@@ -33812,7 +33811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>2017</v>
       </c>
@@ -33877,7 +33876,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>2017</v>
       </c>
@@ -33942,7 +33941,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>2017</v>
       </c>
@@ -34007,7 +34006,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>2017</v>
       </c>
@@ -34072,7 +34071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>2017</v>
       </c>
@@ -34137,7 +34136,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>2017</v>
       </c>
@@ -34202,7 +34201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>2017</v>
       </c>
@@ -34267,7 +34266,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>2017</v>
       </c>
@@ -34332,7 +34331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>2017</v>
       </c>
@@ -34397,7 +34396,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>2017</v>
       </c>
@@ -34462,7 +34461,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>2017</v>
       </c>
@@ -34527,7 +34526,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>2017</v>
       </c>
@@ -34592,7 +34591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>2017</v>
       </c>
@@ -34657,7 +34656,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>2017</v>
       </c>
@@ -34722,7 +34721,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>2017</v>
       </c>
@@ -34787,7 +34786,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>2017</v>
       </c>
@@ -34852,7 +34851,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>2018</v>
       </c>
@@ -34917,7 +34916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>2018</v>
       </c>
@@ -35047,7 +35046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>2018</v>
       </c>
@@ -35112,7 +35111,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>2018</v>
       </c>
@@ -35177,7 +35176,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>2018</v>
       </c>
@@ -35242,7 +35241,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>2018</v>
       </c>
@@ -35307,7 +35306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>2018</v>
       </c>
@@ -35372,7 +35371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>2018</v>
       </c>
@@ -35437,7 +35436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>2018</v>
       </c>
@@ -35502,7 +35501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>2018</v>
       </c>
@@ -35567,7 +35566,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>2018</v>
       </c>
@@ -35632,7 +35631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>2018</v>
       </c>
@@ -35697,7 +35696,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>2018</v>
       </c>
@@ -35762,7 +35761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>2018</v>
       </c>
@@ -35827,7 +35826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>2018</v>
       </c>
@@ -35892,7 +35891,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>2018</v>
       </c>
@@ -35957,7 +35956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>2018</v>
       </c>
@@ -36022,7 +36021,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>2018</v>
       </c>
@@ -36087,7 +36086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>2018</v>
       </c>
@@ -36152,7 +36151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>2018</v>
       </c>
@@ -36217,7 +36216,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>2018</v>
       </c>
@@ -36282,7 +36281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>2018</v>
       </c>
@@ -36347,7 +36346,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>2018</v>
       </c>
@@ -36412,7 +36411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>2018</v>
       </c>
@@ -36477,7 +36476,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>2018</v>
       </c>
@@ -36542,7 +36541,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>2018</v>
       </c>
@@ -36607,7 +36606,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>2018</v>
       </c>
@@ -36672,7 +36671,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>2018</v>
       </c>
@@ -36737,7 +36736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>2018</v>
       </c>
@@ -36802,7 +36801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>2018</v>
       </c>
@@ -36867,7 +36866,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>2018</v>
       </c>
@@ -36932,7 +36931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>2019</v>
       </c>
@@ -37062,7 +37061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>2019</v>
       </c>
@@ -37127,7 +37126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>2019</v>
       </c>
@@ -37192,7 +37191,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>2019</v>
       </c>
@@ -37257,7 +37256,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>2019</v>
       </c>
@@ -37322,7 +37321,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>2019</v>
       </c>
@@ -37387,7 +37386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>2019</v>
       </c>
@@ -37452,7 +37451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>2019</v>
       </c>
@@ -37517,7 +37516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>2019</v>
       </c>
@@ -37582,7 +37581,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>2019</v>
       </c>
@@ -37647,7 +37646,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>2019</v>
       </c>
@@ -37712,7 +37711,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>2019</v>
       </c>
@@ -37777,7 +37776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>2019</v>
       </c>
@@ -37842,7 +37841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>2019</v>
       </c>
@@ -37907,7 +37906,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>2019</v>
       </c>
@@ -37972,7 +37971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>2019</v>
       </c>
@@ -38037,7 +38036,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>2019</v>
       </c>
@@ -38102,7 +38101,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>2019</v>
       </c>
@@ -38167,7 +38166,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>2019</v>
       </c>
@@ -38232,7 +38231,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>2019</v>
       </c>
@@ -38297,7 +38296,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>2019</v>
       </c>
@@ -38362,7 +38361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>2019</v>
       </c>
@@ -38427,7 +38426,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>2019</v>
       </c>
@@ -38492,7 +38491,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>2019</v>
       </c>
@@ -38557,7 +38556,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>2019</v>
       </c>
@@ -38622,7 +38621,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>2019</v>
       </c>
@@ -38687,7 +38686,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>2019</v>
       </c>
@@ -38752,7 +38751,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>2019</v>
       </c>
@@ -38817,7 +38816,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>2019</v>
       </c>
@@ -38882,7 +38881,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>2019</v>
       </c>
@@ -38947,7 +38946,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>2019</v>
       </c>
@@ -39077,7 +39076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>2020</v>
       </c>
@@ -39142,7 +39141,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>2020</v>
       </c>
@@ -39207,7 +39206,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>2020</v>
       </c>
@@ -39272,7 +39271,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>2020</v>
       </c>
@@ -39337,7 +39336,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>2020</v>
       </c>
@@ -39402,7 +39401,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>2020</v>
       </c>
@@ -39467,7 +39466,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>2020</v>
       </c>
@@ -39532,7 +39531,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>2020</v>
       </c>
@@ -39597,7 +39596,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>2020</v>
       </c>
@@ -39662,7 +39661,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>2020</v>
       </c>
@@ -39727,7 +39726,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>2020</v>
       </c>
@@ -39792,7 +39791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>2020</v>
       </c>
@@ -39857,7 +39856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>2020</v>
       </c>
@@ -39922,7 +39921,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>2020</v>
       </c>
@@ -39987,7 +39986,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>2020</v>
       </c>
@@ -40052,7 +40051,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>2020</v>
       </c>
@@ -40117,7 +40116,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>2020</v>
       </c>
@@ -40182,7 +40181,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>2020</v>
       </c>
@@ -40247,7 +40246,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>2020</v>
       </c>
@@ -40312,7 +40311,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>2020</v>
       </c>
@@ -40377,7 +40376,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="567" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>2020</v>
       </c>
@@ -40442,7 +40441,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>2020</v>
       </c>
@@ -40507,7 +40506,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>2020</v>
       </c>
@@ -40572,7 +40571,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>2020</v>
       </c>
@@ -40637,7 +40636,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>2020</v>
       </c>
@@ -40702,7 +40701,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>2020</v>
       </c>
@@ -40767,7 +40766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>2020</v>
       </c>
@@ -40832,7 +40831,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>2020</v>
       </c>
@@ -40897,7 +40896,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>2020</v>
       </c>
@@ -40962,7 +40961,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>2020</v>
       </c>
@@ -41027,7 +41026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>2020</v>
       </c>
@@ -41157,7 +41156,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>2021</v>
       </c>
@@ -41222,7 +41221,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>2021</v>
       </c>
@@ -41287,7 +41286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>2021</v>
       </c>
@@ -41352,7 +41351,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>2021</v>
       </c>
@@ -41417,7 +41416,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="583" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>2021</v>
       </c>
@@ -41482,7 +41481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="584" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>2021</v>
       </c>
@@ -41547,7 +41546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>2021</v>
       </c>
@@ -41612,7 +41611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="586" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>2021</v>
       </c>
@@ -41677,7 +41676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>2021</v>
       </c>
@@ -41742,7 +41741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>2021</v>
       </c>
@@ -41807,7 +41806,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>2021</v>
       </c>
@@ -41872,7 +41871,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>2021</v>
       </c>
@@ -41937,7 +41936,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>2021</v>
       </c>
@@ -42002,7 +42001,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>2021</v>
       </c>
@@ -42067,7 +42066,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>2021</v>
       </c>
@@ -42132,7 +42131,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>2021</v>
       </c>
@@ -42197,7 +42196,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>2021</v>
       </c>
@@ -42262,7 +42261,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>2021</v>
       </c>
@@ -42327,7 +42326,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>2021</v>
       </c>
@@ -42392,7 +42391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>2021</v>
       </c>
@@ -42457,7 +42456,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>2021</v>
       </c>
@@ -42522,7 +42521,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>2021</v>
       </c>
@@ -42587,7 +42586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="601" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>2021</v>
       </c>
@@ -42652,7 +42651,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>2021</v>
       </c>
@@ -42717,7 +42716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>2021</v>
       </c>
@@ -42782,7 +42781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>2021</v>
       </c>
@@ -42847,7 +42846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>2021</v>
       </c>
@@ -42912,7 +42911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <v>2021</v>
       </c>
@@ -42977,7 +42976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>2021</v>
       </c>
@@ -43042,7 +43041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>2021</v>
       </c>
@@ -43107,7 +43106,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>2021</v>
       </c>
@@ -43237,7 +43236,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>2022</v>
       </c>
@@ -43302,7 +43301,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="612" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>2022</v>
       </c>
@@ -43367,7 +43366,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>2022</v>
       </c>
@@ -43432,7 +43431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>2022</v>
       </c>
@@ -43497,7 +43496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="615" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>2022</v>
       </c>
@@ -43562,7 +43561,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>2022</v>
       </c>
@@ -43627,7 +43626,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>2022</v>
       </c>
@@ -43692,7 +43691,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>2022</v>
       </c>
@@ -43757,7 +43756,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>2022</v>
       </c>
@@ -43822,7 +43821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>2022</v>
       </c>
@@ -43887,7 +43886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>2022</v>
       </c>
@@ -43952,7 +43951,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>2022</v>
       </c>
@@ -44017,7 +44016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>2022</v>
       </c>
@@ -44082,7 +44081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="624" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>2022</v>
       </c>
@@ -44147,7 +44146,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>2022</v>
       </c>
@@ -44212,7 +44211,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>2022</v>
       </c>
@@ -44277,7 +44276,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>2022</v>
       </c>
@@ -44342,7 +44341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>2022</v>
       </c>
@@ -44407,7 +44406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>2022</v>
       </c>
@@ -44472,7 +44471,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>2022</v>
       </c>
@@ -44537,7 +44536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>2022</v>
       </c>
@@ -44602,7 +44601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>2022</v>
       </c>
@@ -44667,7 +44666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>2022</v>
       </c>
@@ -44732,7 +44731,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>2022</v>
       </c>
@@ -44797,7 +44796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>2022</v>
       </c>
@@ -44862,7 +44861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>2022</v>
       </c>
@@ -44927,7 +44926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>2022</v>
       </c>
@@ -44992,7 +44991,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>2022</v>
       </c>
@@ -45057,7 +45056,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="639" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>2022</v>
       </c>
@@ -45122,7 +45121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="640" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>2022</v>
       </c>
@@ -45187,7 +45186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>2022</v>
       </c>
@@ -47333,13 +47332,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U641" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BUF"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U641" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>